--- a/RUDN/Importance/Varible_f_reg_in_Central America.xlsx
+++ b/RUDN/Importance/Varible_f_reg_in_Central America.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
   <si>
     <t>F-value</t>
   </si>
@@ -22,6 +22,15 @@
     <t>p-value</t>
   </si>
   <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
     <t>Population ages10-14, male (% of male population)</t>
   </si>
   <si>
@@ -34,43 +43,73 @@
     <t>Population ages 05-09, male (% of male population)</t>
   </si>
   <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 0-14 (% of total)</t>
   </si>
   <si>
     <t>Population ages 00-14 (% of total)</t>
   </si>
   <si>
-    <t>Population ages 15-64, male (% of total)</t>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
   </si>
   <si>
     <t>Population ages 80 and older, female (% of female population)</t>
   </si>
   <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
     <t>Age dependency ratio, young</t>
   </si>
   <si>
-    <t>Population ages 15-64 (% of total)</t>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
     <t>Population ages 15-19, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
     <t>Population ages 45-49, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
     <t>Population ages 50-54, male (% of male population)</t>
   </si>
   <si>
-    <t>Age dependency ratio (% of working-age population)</t>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
   </si>
   <si>
     <t>Population ages 50-54, female (% of female population)</t>
@@ -82,7 +121,7 @@
     <t>Population ages 45-49, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 15-64, female (% of total)</t>
+    <t>Health expenditure per capita (current US$)</t>
   </si>
   <si>
     <t>Population ages 55-59, female (% of female population)</t>
@@ -94,33 +133,42 @@
     <t>Rural population (% of total population)</t>
   </si>
   <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
     <t>Population ages 60-64, male (% of male population)</t>
   </si>
   <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
   </si>
   <si>
     <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
   </si>
   <si>
     <t>Population ages 60-64, female (% of female population)</t>
   </si>
   <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, female (% of total)</t>
   </si>
   <si>
@@ -130,36 +178,24 @@
     <t>Population ages 65 and above (% of total)</t>
   </si>
   <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
     <t>GNI per capita, Atlas method (current US$)</t>
   </si>
   <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
     <t>GDP per capita (Current US$)</t>
   </si>
   <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+    <t>Population ages 75-79, female (% of female population)</t>
   </si>
   <si>
     <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
   </si>
   <si>
@@ -169,40 +205,223 @@
     <t>Population ages 65-69, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 75-79, female (% of female population)</t>
+    <t>Low-birthweight babies (% of births)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
   </si>
   <si>
     <t>Population ages 65-69, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
   </si>
   <si>
     <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
     <t>Population ages 70-74, female (% of female population)</t>
   </si>
   <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Informal employment, male (% of total non-agricultural employment)</t>
+  </si>
+  <si>
+    <t>Age at first marriage, female</t>
+  </si>
+  <si>
+    <t>Age at first marriage, male</t>
+  </si>
+  <si>
+    <t>Informal employment, female (% of total non-agricultural employment)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Income share held by lowest 20%</t>
+  </si>
+  <si>
+    <t>GINI index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
   </si>
   <si>
     <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
@@ -211,52 +430,70 @@
     <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
@@ -265,306 +502,204 @@
     <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
   </si>
   <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
   </si>
   <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
   </si>
   <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
+    <t>Health expenditure, public (% of government expenditure)</t>
   </si>
   <si>
     <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
   </si>
   <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
     <t>Time-related underemployment, male (% of employment)</t>
   </si>
   <si>
     <t>Time-related underemployment, female (% of employment)</t>
   </si>
   <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Informal employment, male (% of total non-agricultural employment)</t>
-  </si>
-  <si>
-    <t>Informal employment, female (% of total non-agricultural employment)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age at first marriage, female</t>
-  </si>
-  <si>
-    <t>Age at first marriage, male</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
     <t>Population ages 20-24, male (% of male population)</t>
   </si>
   <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>Low-birthweight babies (% of births)</t>
-  </si>
-  <si>
-    <t>Income share held by lowest 20%</t>
-  </si>
-  <si>
-    <t>GINI index (World Bank estimate)</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
   </si>
   <si>
     <t>Country_code</t>
   </si>
   <si>
-    <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
   </si>
   <si>
     <t>Number of people who are undernourished</t>
   </si>
   <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
     <t>Malaria cases reported</t>
   </si>
   <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
   </si>
   <si>
     <t>Mobile cellular subscriptions (per 100 people)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Physicians (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
     <t>Male population 55-59</t>
   </si>
   <si>
@@ -574,81 +709,102 @@
     <t>Male population 60-64</t>
   </si>
   <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
     <t>Male population 50-54</t>
   </si>
   <si>
-    <t>Male population 45-49</t>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>Female population 60-64</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, total</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
   </si>
   <si>
     <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>Male population 75-79</t>
+  </si>
+  <si>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
     <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, total</t>
-  </si>
-  <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
     <t>Female population 70-74</t>
   </si>
   <si>
     <t>Female population 75-79</t>
   </si>
   <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
     <t>Urban population</t>
   </si>
   <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
     <t>Labor force, female</t>
   </si>
   <si>
-    <t>Female population 35-39</t>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
   </si>
   <si>
     <t>Population ages 15-64, male</t>
   </si>
   <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
     <t>Labor force, total</t>
   </si>
   <si>
@@ -658,69 +814,72 @@
     <t>Population ages 15-64, total</t>
   </si>
   <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population, male</t>
+  </si>
+  <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population, total</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
     <t>Years</t>
   </si>
   <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population, male</t>
-  </si>
-  <si>
-    <t>Population, total</t>
-  </si>
-  <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Population, female</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 20-24</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 23, female, interpolated</t>
   </si>
   <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
     <t>Age population, age 20, male, interpolated</t>
   </si>
   <si>
@@ -730,18 +889,12 @@
     <t>Female population 20-24</t>
   </si>
   <si>
-    <t>People using safely managed sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Agricultural support estimate (% of GDP)</t>
+    <t>Age population, age 19, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 21, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 20, female, interpolated</t>
   </si>
   <si>
@@ -751,100 +904,55 @@
     <t>Age population, age 19, female, interpolated</t>
   </si>
   <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% net)</t>
+    <t>Age population, age 17, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 18, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
     <t>Male population 15-19</t>
   </si>
   <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 15-19</t>
+  </si>
+  <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 15-19</t>
-  </si>
-  <si>
-    <t>Age population, age 16, male, interpolated</t>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
   </si>
   <si>
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
+    <t>School enrollment, tertiary (% gross)</t>
   </si>
   <si>
     <t>Age population, age 14, male, interpolated</t>
   </si>
   <si>
-    <t>People using safely managed drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
+    <t>School enrollment, tertiary, male (% gross)</t>
   </si>
   <si>
     <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1310,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C276"/>
+  <dimension ref="A1:C312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1221,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>443.7703309881277</v>
+        <v>1535.160709657909</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1232,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>397.4918005435256</v>
+        <v>1177.071588309939</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1243,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>376.9317645512479</v>
+        <v>970.2487879324143</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1254,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>368.2208445236406</v>
+        <v>436.2776394250346</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1265,7 +1373,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>316.3331359471658</v>
+        <v>406.6150667088798</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1276,7 +1384,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>316.3331359471658</v>
+        <v>367.6868319631573</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1287,7 +1395,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>312.8898878400694</v>
+        <v>366.9459854116749</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1298,7 +1406,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>306.2929108358162</v>
+        <v>347.3422586513654</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1309,7 +1417,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>269.9276743881415</v>
+        <v>346.0827808826213</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1320,7 +1428,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>268.0804520646053</v>
+        <v>344.5996458321607</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1331,7 +1439,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>261.5979096459758</v>
+        <v>344.5161044006361</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1342,7 +1450,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>256.5038828613095</v>
+        <v>332.206771285866</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1353,7 +1461,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>250.4956979267264</v>
+        <v>331.6392518535125</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1364,7 +1472,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>242.8578562221898</v>
+        <v>314.6475807542332</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1375,7 +1483,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>239.0765191259945</v>
+        <v>307.7770618297313</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1386,7 +1494,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>232.2810919977062</v>
+        <v>307.7770618297313</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1397,7 +1505,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>229.9551537963823</v>
+        <v>306.8360864090139</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1408,7 +1516,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>219.837144392193</v>
+        <v>295.2299376354286</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1419,7 +1527,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>218.9242514933078</v>
+        <v>271.3156546005874</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1430,7 +1538,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>211.2666625739308</v>
+        <v>263.5341614868397</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1441,7 +1549,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>204.6369710537471</v>
+        <v>243.1569172969464</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1452,7 +1560,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>198.1289755436011</v>
+        <v>242.0523849981282</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1463,7 +1571,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>196.1246233567313</v>
+        <v>235.7249216156155</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1474,7 +1582,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>196.1246233567018</v>
+        <v>230.4421275998392</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1485,7 +1593,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>185.2855029924477</v>
+        <v>229.289710990647</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1496,7 +1604,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>178.1524197825279</v>
+        <v>228.0802107158204</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1507,7 +1615,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>175.1188855838093</v>
+        <v>227.2836289264104</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1518,7 +1626,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>173.4058573926537</v>
+        <v>223.5352421410383</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1529,7 +1637,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>172.1315373362405</v>
+        <v>223.5352421410383</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1540,7 +1648,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>163.7349959018121</v>
+        <v>206.7206682083987</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1551,7 +1659,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>151.6379415955849</v>
+        <v>206.1457662956713</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1562,7 +1670,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>150.6713198839989</v>
+        <v>204.3454533156393</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1573,7 +1681,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>148.473205328997</v>
+        <v>200.0949944397817</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1584,7 +1692,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>140.6078894787331</v>
+        <v>188.8346487641517</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1595,7 +1703,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>128.3030900664222</v>
+        <v>181.4784363209876</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1606,7 +1714,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>121.3309505590035</v>
+        <v>177.1947163573076</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1617,7 +1725,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>119.1797018141423</v>
+        <v>177.1947163572801</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1628,7 +1736,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>119.1024982867408</v>
+        <v>170.2370532716591</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1639,7 +1747,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>117.1993357857009</v>
+        <v>166.7301629605085</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1650,7 +1758,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>115.9695527677806</v>
+        <v>166.2445368492068</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1661,7 +1769,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>115.6911257227207</v>
+        <v>165.6847787107129</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1672,7 +1780,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>115.3755098015621</v>
+        <v>165.4627034408759</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1683,7 +1791,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>115.3749174211684</v>
+        <v>155.3203224052761</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1694,7 +1802,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>114.638063032123</v>
+        <v>152.7860390577299</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1705,7 +1813,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>114.4806735431783</v>
+        <v>148.9345424162096</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1716,7 +1824,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>109.6967806060872</v>
+        <v>143.2868019929987</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1727,7 +1835,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>109.0580181748413</v>
+        <v>137.5861070556475</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1738,7 +1846,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>108.2662637514116</v>
+        <v>136.8416718007921</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1749,7 +1857,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>106.9211280971505</v>
+        <v>135.9767185798443</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1760,7 +1868,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>105.0206401143073</v>
+        <v>127.8337015263136</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1771,7 +1879,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>103.7499097931908</v>
+        <v>117.5921053494667</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1782,7 +1890,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>103.0734641528192</v>
+        <v>109.2168734808079</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1793,7 +1901,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>102.7917408913547</v>
+        <v>106.4620949979575</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1804,7 +1912,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>99.88376503282534</v>
+        <v>105.9800362113794</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1815,7 +1923,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>94.52292202854805</v>
+        <v>105.186638844045</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1826,7 +1934,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>90.96158467046223</v>
+        <v>97.90256751617643</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1837,7 +1945,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>85.29258492973007</v>
+        <v>97.04059906419376</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1848,7 +1956,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>85.20054105956513</v>
+        <v>96.59153083658641</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1859,7 +1967,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>76.74460498561429</v>
+        <v>96.47108548251218</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1870,7 +1978,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>73.37990129269426</v>
+        <v>95.77268055691765</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1881,7 +1989,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>73.37990129269426</v>
+        <v>94.29700313695896</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1892,7 +2000,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>72.49764597645118</v>
+        <v>92.70214580634554</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1903,7 +2011,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>70.99722991375296</v>
+        <v>91.64358984264112</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1914,7 +2022,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>70.83517758320254</v>
+        <v>91.21325719886994</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1925,7 +2033,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>70.41573757332964</v>
+        <v>91.17342591085232</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1936,7 +2044,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>70.29857336272703</v>
+        <v>90.70920501251399</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1947,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>69.67740172917306</v>
+        <v>90.40181871525049</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1958,7 +2066,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>69.23491100679001</v>
+        <v>90.14726334395358</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1969,7 +2077,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>68.80509119774771</v>
+        <v>84.72614791388411</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1980,7 +2088,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>68.34538712161036</v>
+        <v>84.72614791388411</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1991,7 +2099,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>67.97464694788795</v>
+        <v>81.02268052296247</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2002,7 +2110,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>66.40210664442893</v>
+        <v>80.98958649157802</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2013,7 +2121,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>63.77042702368354</v>
+        <v>78.39565359505281</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2024,7 +2132,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>63.03377138866947</v>
+        <v>77.72493769722969</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2035,7 +2143,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>59.58685608727207</v>
+        <v>76.91797861250997</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2046,7 +2154,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>59.07720946973235</v>
+        <v>72.84996772158189</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2057,7 +2165,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>53.66447730554317</v>
+        <v>69.45088833904371</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2068,7 +2176,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>53.56320775518431</v>
+        <v>69.45088833904371</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2079,7 +2187,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>50.85391853724737</v>
+        <v>65.7731961892374</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2090,7 +2198,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>50.22343486672537</v>
+        <v>65.00000979144087</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2101,7 +2209,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>50.16379119112172</v>
+        <v>64.05555809055733</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2112,7 +2220,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>49.922837789516</v>
+        <v>63.8433909401588</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2123,7 +2231,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>49.76956142899596</v>
+        <v>63.83882140090855</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2134,7 +2242,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>49.46974488090287</v>
+        <v>63.51325302743724</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2145,7 +2253,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>49.23323364198805</v>
+        <v>62.53690440811432</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2156,7 +2264,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>48.87074768049659</v>
+        <v>61.17026033648155</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2167,7 +2275,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>48.83535920773296</v>
+        <v>60.73159221825316</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2178,7 +2286,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>48.59496570064623</v>
+        <v>60.30472900433824</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2189,7 +2297,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>48.56441150944541</v>
+        <v>60.06972653419112</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2200,7 +2308,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>48.09002955799005</v>
+        <v>59.43275315339344</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2211,7 +2319,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>47.89015499077282</v>
+        <v>59.24437735101277</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2222,7 +2330,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>47.39504529637268</v>
+        <v>58.90996414821785</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2233,7 +2341,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>47.33701764167749</v>
+        <v>58.59055592977592</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2244,7 +2352,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>46.3352163552348</v>
+        <v>56.61266225176723</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2255,7 +2363,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>45.23917002500058</v>
+        <v>55.62772493580442</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2266,7 +2374,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>45.10701117729841</v>
+        <v>53.51475104697355</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2277,7 +2385,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>44.60494683123986</v>
+        <v>53.46679939747921</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2288,7 +2396,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>42.98517721815549</v>
+        <v>53.41218677493494</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2299,7 +2407,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>40.5660720668795</v>
+        <v>53.32579524283048</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2310,7 +2418,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>40.28165534757528</v>
+        <v>52.80053777371759</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2321,7 +2429,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>39.13286902357429</v>
+        <v>52.71662528481821</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2332,7 +2440,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>38.15850051201547</v>
+        <v>52.2033414907123</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2343,7 +2451,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>37.99125963316013</v>
+        <v>51.4932199145516</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2354,7 +2462,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>37.48746933147841</v>
+        <v>50.61743799051833</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2365,7 +2473,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>37.14997942414871</v>
+        <v>50.27535430696715</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2376,7 +2484,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>36.7542579502357</v>
+        <v>49.40099536896796</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2387,7 +2495,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>36.65976229046173</v>
+        <v>48.3883532906708</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2398,7 +2506,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>36.55298566423465</v>
+        <v>48.30896306650146</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2409,7 +2517,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>36.50918740890092</v>
+        <v>48.07567780321629</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2420,7 +2528,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>36.41508795353555</v>
+        <v>47.97984391738241</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2431,7 +2539,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>36.41465800205021</v>
+        <v>47.82993254096552</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2442,7 +2550,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>36.37305178149956</v>
+        <v>47.09168756098534</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2453,7 +2561,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>36.34567930472961</v>
+        <v>46.65843073560472</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2464,7 +2572,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>36.16317685132947</v>
+        <v>45.82247233552196</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2475,7 +2583,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>35.27301222130686</v>
+        <v>45.30989928836417</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2486,7 +2594,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>33.48711109603136</v>
+        <v>44.28491565161857</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2497,7 +2605,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>33.40512822739798</v>
+        <v>44.0323055404551</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2508,7 +2616,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>32.21003694336521</v>
+        <v>43.37737060604768</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2519,7 +2627,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>30.94933709626194</v>
+        <v>43.1810403826865</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2530,7 +2638,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>30.1211280410863</v>
+        <v>41.52873877568474</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2541,7 +2649,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>30.11801870804088</v>
+        <v>41.2698470130318</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2552,7 +2660,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>30.01513113247312</v>
+        <v>39.30001875065743</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2563,7 +2671,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>30.01513113247312</v>
+        <v>39.29634855591087</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2574,7 +2682,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>28.98670087159259</v>
+        <v>39.14425493258941</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2585,7 +2693,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>28.81514593672795</v>
+        <v>38.68617992274098</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2596,7 +2704,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>28.78727937950664</v>
+        <v>38.55946779096023</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2607,7 +2715,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>27.51578890488986</v>
+        <v>37.49108830794776</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2618,7 +2726,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>27.51423667384851</v>
+        <v>36.79623697312791</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2629,7 +2737,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>27.21139019423189</v>
+        <v>36.15887066237987</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2640,7 +2748,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>24.44890731078723</v>
+        <v>36.06941037315667</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -2651,7 +2759,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>23.19645034767535</v>
+        <v>36.03266113374082</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2662,7 +2770,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>23.19446990430427</v>
+        <v>35.94901083026129</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -2673,7 +2781,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>23.15684962090549</v>
+        <v>35.93631947446726</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2684,7 +2792,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>23.13376357518137</v>
+        <v>35.64899789343612</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2695,10 +2803,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>22.25998346317442</v>
+        <v>35.28640584549935</v>
       </c>
       <c r="C136">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2706,10 +2814,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>20.34758302367049</v>
+        <v>34.27112385226084</v>
       </c>
       <c r="C137">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2717,10 +2825,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>20.32796906174417</v>
+        <v>33.70021232975484</v>
       </c>
       <c r="C138">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2728,10 +2836,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>20.19641817073092</v>
+        <v>33.3142029605851</v>
       </c>
       <c r="C139">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2739,10 +2847,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>20.19641817068595</v>
+        <v>33.15809935975347</v>
       </c>
       <c r="C140">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2750,10 +2858,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>20.11898391988587</v>
+        <v>33.08595506762355</v>
       </c>
       <c r="C141">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2761,10 +2869,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>19.80706578746863</v>
+        <v>32.64253597281468</v>
       </c>
       <c r="C142">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2772,10 +2880,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>18.59145666153332</v>
+        <v>32.57485145972404</v>
       </c>
       <c r="C143">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2783,10 +2891,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>17.74531589462986</v>
+        <v>31.86573635777843</v>
       </c>
       <c r="C144">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2794,10 +2902,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>17.6569864804469</v>
+        <v>31.53889312346698</v>
       </c>
       <c r="C145">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2805,10 +2913,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>16.21966542062646</v>
+        <v>30.7206656750151</v>
       </c>
       <c r="C146">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2816,10 +2924,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>16.21966542062646</v>
+        <v>30.25620197820622</v>
       </c>
       <c r="C147">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2827,10 +2935,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>15.4404694952416</v>
+        <v>30.19691753308393</v>
       </c>
       <c r="C148">
-        <v>0.00015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2838,10 +2946,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>15.32436007803484</v>
+        <v>29.10027135421428</v>
       </c>
       <c r="C149">
-        <v>0.00016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2849,10 +2957,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>15.22018396277567</v>
+        <v>28.96120424488893</v>
       </c>
       <c r="C150">
-        <v>0.00017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2860,10 +2968,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>14.69721308091505</v>
+        <v>28.6980881196698</v>
       </c>
       <c r="C151">
-        <v>0.00021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2871,10 +2979,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>14.49186768045261</v>
+        <v>28.61060292877591</v>
       </c>
       <c r="C152">
-        <v>0.00023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2882,10 +2990,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>14.36042208354923</v>
+        <v>28.35601540903129</v>
       </c>
       <c r="C153">
-        <v>0.00025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2893,10 +3001,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>14.25243113859914</v>
+        <v>27.96259851837724</v>
       </c>
       <c r="C154">
-        <v>0.00026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2904,10 +3012,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>14.18263854708703</v>
+        <v>27.95755909788547</v>
       </c>
       <c r="C155">
-        <v>0.00027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2915,10 +3023,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>14.18173009326194</v>
+        <v>27.69495751041275</v>
       </c>
       <c r="C156">
-        <v>0.00027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2926,10 +3034,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>14.16698921947087</v>
+        <v>27.38637041943529</v>
       </c>
       <c r="C157">
-        <v>0.00027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2937,10 +3045,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>14.15305957914534</v>
+        <v>26.26175992136366</v>
       </c>
       <c r="C158">
-        <v>0.00027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2948,10 +3056,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>14.13796055605594</v>
+        <v>26.23680400604632</v>
       </c>
       <c r="C159">
-        <v>0.00027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2959,10 +3067,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>14.13312255188377</v>
+        <v>26.17238797275852</v>
       </c>
       <c r="C160">
-        <v>0.00027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2970,10 +3078,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>14.12350148494075</v>
+        <v>26.16699091303662</v>
       </c>
       <c r="C161">
-        <v>0.00028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2981,10 +3089,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>14.11880833305542</v>
+        <v>25.98137367701137</v>
       </c>
       <c r="C162">
-        <v>0.00028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2992,10 +3100,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>14.11384491678164</v>
+        <v>25.9775031631711</v>
       </c>
       <c r="C163">
-        <v>0.00028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3003,10 +3111,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>14.10748933368853</v>
+        <v>25.59636496773222</v>
       </c>
       <c r="C164">
-        <v>0.00028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3014,10 +3122,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>14.00295394249426</v>
+        <v>25.50536960295324</v>
       </c>
       <c r="C165">
-        <v>0.00029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3025,10 +3133,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>13.96098007293822</v>
+        <v>25.45549154981265</v>
       </c>
       <c r="C166">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3036,10 +3144,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>13.95040701494001</v>
+        <v>25.45502594749992</v>
       </c>
       <c r="C167">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3047,10 +3155,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>13.92046715620918</v>
+        <v>22.33200161678972</v>
       </c>
       <c r="C168">
-        <v>0.0003</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3058,10 +3166,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>13.67857152526011</v>
+        <v>22.08050167486576</v>
       </c>
       <c r="C169">
-        <v>0.00034</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3069,10 +3177,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>13.65983384428055</v>
+        <v>21.60433389683359</v>
       </c>
       <c r="C170">
-        <v>0.00034</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3080,10 +3188,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>13.64560572560282</v>
+        <v>21.26035819436189</v>
       </c>
       <c r="C171">
-        <v>0.00035</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3091,10 +3199,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>13.06311590024307</v>
+        <v>20.44912166300421</v>
       </c>
       <c r="C172">
-        <v>0.00046</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3102,10 +3210,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>13.00237821168334</v>
+        <v>20.43751805790185</v>
       </c>
       <c r="C173">
-        <v>0.00047</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3113,10 +3221,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>12.82128193455897</v>
+        <v>20.40591615216707</v>
       </c>
       <c r="C174">
-        <v>0.00051</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3124,10 +3232,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>12.71373326944049</v>
+        <v>20.40481758701769</v>
       </c>
       <c r="C175">
-        <v>0.00054</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3135,10 +3243,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>12.07428672561572</v>
+        <v>20.36724147617645</v>
       </c>
       <c r="C176">
-        <v>0.00073</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3146,10 +3254,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>12.05098857514004</v>
+        <v>20.34195719233047</v>
       </c>
       <c r="C177">
-        <v>0.00074</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3157,10 +3265,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>11.69078966143366</v>
+        <v>20.24507403399871</v>
       </c>
       <c r="C178">
-        <v>0.00088</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3168,10 +3276,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>11.59458748073121</v>
+        <v>20.08919007392741</v>
       </c>
       <c r="C179">
-        <v>0.00092</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3179,10 +3287,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>11.45804153357422</v>
+        <v>20.00127166818817</v>
       </c>
       <c r="C180">
-        <v>0.00099</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3190,10 +3298,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>11.16399404936778</v>
+        <v>19.99313364368136</v>
       </c>
       <c r="C181">
-        <v>0.00114</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3201,10 +3309,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>11.14250840299248</v>
+        <v>19.97844578717172</v>
       </c>
       <c r="C182">
-        <v>0.00115</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3212,10 +3320,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>11.08058424246952</v>
+        <v>19.95395120043544</v>
       </c>
       <c r="C183">
-        <v>0.00119</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3223,10 +3331,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>10.97751822108116</v>
+        <v>19.95102292179214</v>
       </c>
       <c r="C184">
-        <v>0.00125</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3234,10 +3342,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>10.96297205416561</v>
+        <v>19.915880816326</v>
       </c>
       <c r="C185">
-        <v>0.00126</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3245,10 +3353,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>10.89762411848744</v>
+        <v>19.91385161460795</v>
       </c>
       <c r="C186">
-        <v>0.0013</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3256,10 +3364,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>10.86724089731642</v>
+        <v>19.90865370714726</v>
       </c>
       <c r="C187">
-        <v>0.00132</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3267,10 +3375,10 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>10.84920824106327</v>
+        <v>19.89117489784086</v>
       </c>
       <c r="C188">
-        <v>0.00133</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3278,10 +3386,10 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>10.76639483120664</v>
+        <v>19.73604744911687</v>
       </c>
       <c r="C189">
-        <v>0.00139</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3289,10 +3397,10 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>10.6713214685937</v>
+        <v>19.67696460638416</v>
       </c>
       <c r="C190">
-        <v>0.00145</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3300,10 +3408,10 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>10.67015117935623</v>
+        <v>19.66180011526052</v>
       </c>
       <c r="C191">
-        <v>0.00145</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3311,10 +3419,10 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>10.62915293161445</v>
+        <v>19.65648200754138</v>
       </c>
       <c r="C192">
-        <v>0.00148</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3322,10 +3430,10 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>10.59975223993682</v>
+        <v>19.65648200749864</v>
       </c>
       <c r="C193">
-        <v>0.0015</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3333,10 +3441,10 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>10.59615940374302</v>
+        <v>19.61325949711535</v>
       </c>
       <c r="C194">
-        <v>0.00151</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3344,10 +3452,10 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>10.57649156285832</v>
+        <v>19.288410266759</v>
       </c>
       <c r="C195">
-        <v>0.00152</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3355,10 +3463,10 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>10.47165991879553</v>
+        <v>19.2866810871443</v>
       </c>
       <c r="C196">
-        <v>0.0016</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3366,10 +3474,10 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>10.38993514873059</v>
+        <v>19.25677016868438</v>
       </c>
       <c r="C197">
-        <v>0.00167</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3377,10 +3485,10 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>10.36505486911281</v>
+        <v>19.23393686782112</v>
       </c>
       <c r="C198">
-        <v>0.00169</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3388,10 +3496,10 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>10.35640157350334</v>
+        <v>19.18073118766361</v>
       </c>
       <c r="C199">
-        <v>0.0017</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3399,10 +3507,10 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>10.31493030154023</v>
+        <v>19.14098290067321</v>
       </c>
       <c r="C200">
-        <v>0.00173</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3410,10 +3518,10 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>10.31246639903851</v>
+        <v>19.13294274834828</v>
       </c>
       <c r="C201">
-        <v>0.00173</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3421,10 +3529,10 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>10.19797427732959</v>
+        <v>19.11357122026693</v>
       </c>
       <c r="C202">
-        <v>0.00183</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3432,10 +3540,10 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>10.07760557684449</v>
+        <v>18.68706524172845</v>
       </c>
       <c r="C203">
-        <v>0.00195</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3443,10 +3551,10 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>10.0510393161104</v>
+        <v>18.29087496981818</v>
       </c>
       <c r="C204">
-        <v>0.00197</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3454,10 +3562,10 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>10.00242547256527</v>
+        <v>18.20180781703642</v>
       </c>
       <c r="C205">
-        <v>0.00202</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3465,10 +3573,10 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>9.923532179619233</v>
+        <v>16.95652713015411</v>
       </c>
       <c r="C206">
-        <v>0.0021</v>
+        <v>8.000000000000001e-05</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3476,10 +3584,10 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>9.754573482220042</v>
+        <v>15.96606605060819</v>
       </c>
       <c r="C207">
-        <v>0.00229</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3487,10 +3595,10 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>9.554086481843363</v>
+        <v>15.88074810385307</v>
       </c>
       <c r="C208">
-        <v>0.00253</v>
+        <v>0.00013</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3498,10 +3606,10 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>9.540892858762502</v>
+        <v>15.43530605006783</v>
       </c>
       <c r="C209">
-        <v>0.00254</v>
+        <v>0.00016</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3509,10 +3617,10 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>9.475522188826686</v>
+        <v>15.08498116208667</v>
       </c>
       <c r="C210">
-        <v>0.00263</v>
+        <v>0.00018</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3520,10 +3628,10 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>9.401647761304805</v>
+        <v>14.92757768211173</v>
       </c>
       <c r="C211">
-        <v>0.00273</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3531,10 +3639,10 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>9.332207556978236</v>
+        <v>14.92757768211173</v>
       </c>
       <c r="C212">
-        <v>0.00283</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3542,10 +3650,10 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>9.303270795698449</v>
+        <v>14.66753521170819</v>
       </c>
       <c r="C213">
-        <v>0.00287</v>
+        <v>0.00022</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3553,10 +3661,10 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>9.198558214842587</v>
+        <v>13.77772146581543</v>
       </c>
       <c r="C214">
-        <v>0.00302</v>
+        <v>0.00034</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3564,10 +3672,10 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>9.134850778787024</v>
+        <v>13.31157407087024</v>
       </c>
       <c r="C215">
-        <v>0.00312</v>
+        <v>0.00042</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3575,10 +3683,10 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>8.870384883279158</v>
+        <v>12.88353353931075</v>
       </c>
       <c r="C216">
-        <v>0.00357</v>
+        <v>0.00051</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3586,10 +3694,10 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>8.841002583310537</v>
+        <v>12.63990582891572</v>
       </c>
       <c r="C217">
-        <v>0.00362</v>
+        <v>0.00057</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3597,10 +3705,10 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>8.837251651577782</v>
+        <v>12.13703786817392</v>
       </c>
       <c r="C218">
-        <v>0.00363</v>
+        <v>0.00073</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3608,10 +3716,10 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>8.703862996127091</v>
+        <v>11.89471837842568</v>
       </c>
       <c r="C219">
-        <v>0.00388</v>
+        <v>0.00082</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3619,10 +3727,10 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>8.700486996257169</v>
+        <v>11.40007808818916</v>
       </c>
       <c r="C220">
-        <v>0.00389</v>
+        <v>0.00104</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3630,10 +3738,10 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>8.606574940466755</v>
+        <v>10.95872705395533</v>
       </c>
       <c r="C221">
-        <v>0.00408</v>
+        <v>0.00129</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3641,10 +3749,10 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>8.602234436975674</v>
+        <v>10.95077045594505</v>
       </c>
       <c r="C222">
-        <v>0.00409</v>
+        <v>0.00129</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3652,10 +3760,10 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>8.553644438070469</v>
+        <v>10.84457758410693</v>
       </c>
       <c r="C223">
-        <v>0.00419</v>
+        <v>0.00136</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3663,10 +3771,10 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>8.529892376645602</v>
+        <v>10.71320010409231</v>
       </c>
       <c r="C224">
-        <v>0.00424</v>
+        <v>0.00145</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3674,10 +3782,10 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>8.520863779994139</v>
+        <v>10.5788055244035</v>
       </c>
       <c r="C225">
-        <v>0.00426</v>
+        <v>0.00155</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3685,10 +3793,10 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>8.513911816165066</v>
+        <v>10.42091314705696</v>
       </c>
       <c r="C226">
-        <v>0.00427</v>
+        <v>0.00168</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3696,10 +3804,10 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>8.494784129629789</v>
+        <v>10.36767916438703</v>
       </c>
       <c r="C227">
-        <v>0.00432</v>
+        <v>0.00172</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3707,10 +3815,10 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>8.460067981991211</v>
+        <v>10.34407386542793</v>
       </c>
       <c r="C228">
-        <v>0.00439</v>
+        <v>0.00174</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3718,10 +3826,10 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>8.383971758352248</v>
+        <v>10.25332177328098</v>
       </c>
       <c r="C229">
-        <v>0.00457</v>
+        <v>0.00182</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3729,10 +3837,10 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>8.376876233538445</v>
+        <v>10.23920060614376</v>
       </c>
       <c r="C230">
-        <v>0.00458</v>
+        <v>0.00183</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3740,10 +3848,10 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>8.343561286805903</v>
+        <v>10.22407201814562</v>
       </c>
       <c r="C231">
-        <v>0.00466</v>
+        <v>0.00185</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3751,10 +3859,10 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>8.272818714636495</v>
+        <v>10.19757985181506</v>
       </c>
       <c r="C232">
-        <v>0.00483</v>
+        <v>0.00187</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3762,10 +3870,10 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>8.269402481515279</v>
+        <v>10.18847566804194</v>
       </c>
       <c r="C233">
-        <v>0.00484</v>
+        <v>0.00188</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3773,10 +3881,10 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>8.197772278148948</v>
+        <v>9.962673711614045</v>
       </c>
       <c r="C234">
-        <v>0.00502</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3784,10 +3892,10 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>8.151558895340328</v>
+        <v>9.936509180343325</v>
       </c>
       <c r="C235">
-        <v>0.00514</v>
+        <v>0.00213</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3795,10 +3903,10 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>8.121114917118959</v>
+        <v>9.909681870491763</v>
       </c>
       <c r="C236">
-        <v>0.00522</v>
+        <v>0.00216</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3806,10 +3914,10 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>8.11717700251177</v>
+        <v>9.869318462503347</v>
       </c>
       <c r="C237">
-        <v>0.00524</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3817,10 +3925,10 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>8.091511524843293</v>
+        <v>9.864044391104548</v>
       </c>
       <c r="C238">
-        <v>0.0053</v>
+        <v>0.00221</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3828,10 +3936,10 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>8.062179323719022</v>
+        <v>9.75684619439367</v>
       </c>
       <c r="C239">
-        <v>0.00539</v>
+        <v>0.00233</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3839,10 +3947,10 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>8.042491360765089</v>
+        <v>9.703238522399889</v>
       </c>
       <c r="C240">
-        <v>0.00544</v>
+        <v>0.00239</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3850,10 +3958,10 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>8.031586639523793</v>
+        <v>9.665088304521767</v>
       </c>
       <c r="C241">
-        <v>0.00547</v>
+        <v>0.00243</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3861,10 +3969,10 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>7.961299169219163</v>
+        <v>9.661073244998803</v>
       </c>
       <c r="C242">
-        <v>0.00567</v>
+        <v>0.00244</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3872,10 +3980,10 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>7.908151144638476</v>
+        <v>9.644398981440522</v>
       </c>
       <c r="C243">
-        <v>0.00583</v>
+        <v>0.00246</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3883,10 +3991,10 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>7.877891450344018</v>
+        <v>9.637744671867964</v>
       </c>
       <c r="C244">
-        <v>0.00592</v>
+        <v>0.00247</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3894,10 +4002,10 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>7.87605922184965</v>
+        <v>9.592975879797466</v>
       </c>
       <c r="C245">
-        <v>0.00593</v>
+        <v>0.00252</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3905,10 +4013,10 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>7.856979008658421</v>
+        <v>9.496922441783459</v>
       </c>
       <c r="C246">
-        <v>0.00598</v>
+        <v>0.00265</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3916,10 +4024,10 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>7.836522779172293</v>
+        <v>9.460042008654016</v>
       </c>
       <c r="C247">
-        <v>0.00605</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3927,10 +4035,10 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>7.788527494824435</v>
+        <v>9.45862495725299</v>
       </c>
       <c r="C248">
-        <v>0.0062</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3938,10 +4046,10 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>7.779600014881174</v>
+        <v>9.447117382441363</v>
       </c>
       <c r="C249">
-        <v>0.00623</v>
+        <v>0.00271</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3949,10 +4057,10 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>7.771310812635501</v>
+        <v>9.350715313919716</v>
       </c>
       <c r="C250">
-        <v>0.00626</v>
+        <v>0.00285</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3960,10 +4068,10 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>7.76061066340006</v>
+        <v>9.311262224936497</v>
       </c>
       <c r="C251">
-        <v>0.00629</v>
+        <v>0.0029</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3971,10 +4079,10 @@
         <v>252</v>
       </c>
       <c r="B252">
-        <v>7.687992022982589</v>
+        <v>9.272703711346582</v>
       </c>
       <c r="C252">
-        <v>0.00653</v>
+        <v>0.00296</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3982,10 +4090,10 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>7.672731441264927</v>
+        <v>9.225979591856683</v>
       </c>
       <c r="C253">
-        <v>0.00658</v>
+        <v>0.00303</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3993,10 +4101,10 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>7.645856244384614</v>
+        <v>9.158797100074876</v>
       </c>
       <c r="C254">
-        <v>0.00667</v>
+        <v>0.00313</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4004,10 +4112,10 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>7.620079347642271</v>
+        <v>8.99008955379154</v>
       </c>
       <c r="C255">
-        <v>0.00676</v>
+        <v>0.00341</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4015,10 +4123,10 @@
         <v>256</v>
       </c>
       <c r="B256">
-        <v>7.57376735554223</v>
+        <v>8.981826489803709</v>
       </c>
       <c r="C256">
-        <v>0.00693</v>
+        <v>0.00342</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4026,10 +4134,10 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>7.508225791662015</v>
+        <v>8.958402431239994</v>
       </c>
       <c r="C257">
-        <v>0.00717</v>
+        <v>0.00346</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4037,10 +4145,10 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>7.447270490806574</v>
+        <v>8.930227575572014</v>
       </c>
       <c r="C258">
-        <v>0.0074</v>
+        <v>0.00351</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4048,10 +4156,10 @@
         <v>259</v>
       </c>
       <c r="B259">
-        <v>7.370834953685959</v>
+        <v>8.915204891353813</v>
       </c>
       <c r="C259">
-        <v>0.0077</v>
+        <v>0.00354</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4059,10 +4167,10 @@
         <v>260</v>
       </c>
       <c r="B260">
-        <v>7.351922501526783</v>
+        <v>8.898602955165041</v>
       </c>
       <c r="C260">
-        <v>0.00778</v>
+        <v>0.00357</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4070,10 +4178,10 @@
         <v>261</v>
       </c>
       <c r="B261">
-        <v>7.319765583682325</v>
+        <v>8.896599860310213</v>
       </c>
       <c r="C261">
-        <v>0.00791</v>
+        <v>0.00357</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4081,10 +4189,10 @@
         <v>262</v>
       </c>
       <c r="B262">
-        <v>7.313265127870176</v>
+        <v>8.867223250688435</v>
       </c>
       <c r="C262">
-        <v>0.00793</v>
+        <v>0.00363</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4092,10 +4200,10 @@
         <v>263</v>
       </c>
       <c r="B263">
-        <v>7.239684578127812</v>
+        <v>8.810185899077164</v>
       </c>
       <c r="C263">
-        <v>0.008240000000000001</v>
+        <v>0.00373</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4103,10 +4211,10 @@
         <v>264</v>
       </c>
       <c r="B264">
-        <v>7.180797634293403</v>
+        <v>8.786376697367263</v>
       </c>
       <c r="C264">
-        <v>0.008500000000000001</v>
+        <v>0.00378</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4114,10 +4222,10 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>7.130642876714319</v>
+        <v>8.731760094441411</v>
       </c>
       <c r="C265">
-        <v>0.00873</v>
+        <v>0.00388</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4125,10 +4233,10 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>7.119623499494879</v>
+        <v>8.570637219377161</v>
       </c>
       <c r="C266">
-        <v>0.00878</v>
+        <v>0.00421</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4136,10 +4244,10 @@
         <v>267</v>
       </c>
       <c r="B267">
-        <v>7.102689415742065</v>
+        <v>8.45835770941382</v>
       </c>
       <c r="C267">
-        <v>0.00886</v>
+        <v>0.00446</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4147,10 +4255,10 @@
         <v>268</v>
       </c>
       <c r="B268">
-        <v>7.072087813757062</v>
+        <v>8.45835770941382</v>
       </c>
       <c r="C268">
-        <v>0.008999999999999999</v>
+        <v>0.00446</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4158,10 +4266,10 @@
         <v>269</v>
       </c>
       <c r="B269">
-        <v>7.059033287407844</v>
+        <v>8.342598749928809</v>
       </c>
       <c r="C269">
-        <v>0.00906</v>
+        <v>0.00473</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4169,10 +4277,10 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>7.011926850452094</v>
+        <v>8.328311984865294</v>
       </c>
       <c r="C270">
-        <v>0.00929</v>
+        <v>0.00476</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4180,10 +4288,10 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>6.951487916410137</v>
+        <v>8.194494430031511</v>
       </c>
       <c r="C271">
-        <v>0.00959</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4191,10 +4299,10 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>6.943814734105818</v>
+        <v>8.19091561520634</v>
       </c>
       <c r="C272">
-        <v>0.00962</v>
+        <v>0.00511</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4202,10 +4310,10 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>6.917296962707102</v>
+        <v>8.16795960090057</v>
       </c>
       <c r="C273">
-        <v>0.00976</v>
+        <v>0.00517</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4213,10 +4321,10 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>6.915993951126977</v>
+        <v>8.098953487550556</v>
       </c>
       <c r="C274">
-        <v>0.009769999999999999</v>
+        <v>0.00535</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4224,10 +4332,10 @@
         <v>275</v>
       </c>
       <c r="B275">
-        <v>6.88937060431115</v>
+        <v>8.078321783507514</v>
       </c>
       <c r="C275">
-        <v>0.009900000000000001</v>
+        <v>0.00541</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4235,10 +4343,406 @@
         <v>276</v>
       </c>
       <c r="B276">
-        <v>6.88937060431115</v>
+        <v>8.04939907125175</v>
       </c>
       <c r="C276">
-        <v>0.009900000000000001</v>
+        <v>0.00549</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277">
+        <v>8.001047308206303</v>
+      </c>
+      <c r="C277">
+        <v>0.00563</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278">
+        <v>7.989901085134743</v>
+      </c>
+      <c r="C278">
+        <v>0.00566</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279">
+        <v>7.955285277777696</v>
+      </c>
+      <c r="C279">
+        <v>0.00576</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B280">
+        <v>7.899042662588319</v>
+      </c>
+      <c r="C280">
+        <v>0.00593</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B281">
+        <v>7.891941179516154</v>
+      </c>
+      <c r="C281">
+        <v>0.00595</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282">
+        <v>7.848557002010534</v>
+      </c>
+      <c r="C282">
+        <v>0.00609</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B283">
+        <v>7.793026032150035</v>
+      </c>
+      <c r="C283">
+        <v>0.00626</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B284">
+        <v>7.785318269929745</v>
+      </c>
+      <c r="C284">
+        <v>0.00629</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B285">
+        <v>7.775331577130022</v>
+      </c>
+      <c r="C285">
+        <v>0.00632</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B286">
+        <v>7.71714685518348</v>
+      </c>
+      <c r="C286">
+        <v>0.00651</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B287">
+        <v>7.692958342555666</v>
+      </c>
+      <c r="C287">
+        <v>0.00659</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288">
+        <v>7.684047590025415</v>
+      </c>
+      <c r="C288">
+        <v>0.00662</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289">
+        <v>7.645846729936451</v>
+      </c>
+      <c r="C289">
+        <v>0.00675</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B290">
+        <v>7.641644554336682</v>
+      </c>
+      <c r="C290">
+        <v>0.00677</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291">
+        <v>7.572649345783435</v>
+      </c>
+      <c r="C291">
+        <v>0.00701</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292">
+        <v>7.572115510855004</v>
+      </c>
+      <c r="C292">
+        <v>0.00702</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293">
+        <v>7.496546198137225</v>
+      </c>
+      <c r="C293">
+        <v>0.0073</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294">
+        <v>7.459225553166393</v>
+      </c>
+      <c r="C294">
+        <v>0.00744</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295">
+        <v>7.418437382659221</v>
+      </c>
+      <c r="C295">
+        <v>0.0076</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296">
+        <v>7.342749236243145</v>
+      </c>
+      <c r="C296">
+        <v>0.007900000000000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297">
+        <v>7.337887298614003</v>
+      </c>
+      <c r="C297">
+        <v>0.00792</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298">
+        <v>7.335246749750664</v>
+      </c>
+      <c r="C298">
+        <v>0.00793</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299">
+        <v>7.251281919216699</v>
+      </c>
+      <c r="C299">
+        <v>0.008279999999999999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300">
+        <v>7.238369759789082</v>
+      </c>
+      <c r="C300">
+        <v>0.00834</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301">
+        <v>7.221921297804067</v>
+      </c>
+      <c r="C301">
+        <v>0.008410000000000001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B302">
+        <v>7.15375211993211</v>
+      </c>
+      <c r="C302">
+        <v>0.008710000000000001</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B303">
+        <v>7.118084506235345</v>
+      </c>
+      <c r="C303">
+        <v>0.008880000000000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B304">
+        <v>7.09592991067805</v>
+      </c>
+      <c r="C304">
+        <v>0.00898</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305">
+        <v>7.086521159450062</v>
+      </c>
+      <c r="C305">
+        <v>0.00902</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306">
+        <v>7.064444109787764</v>
+      </c>
+      <c r="C306">
+        <v>0.009129999999999999</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B307">
+        <v>7.042456051291644</v>
+      </c>
+      <c r="C307">
+        <v>0.00923</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B308">
+        <v>7.002099202773492</v>
+      </c>
+      <c r="C308">
+        <v>0.009429999999999999</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309">
+        <v>6.992523877281904</v>
+      </c>
+      <c r="C309">
+        <v>0.009480000000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B310">
+        <v>6.969243274265474</v>
+      </c>
+      <c r="C310">
+        <v>0.00959</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311">
+        <v>6.928803542741637</v>
+      </c>
+      <c r="C311">
+        <v>0.0098</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312">
+        <v>6.923072614263025</v>
+      </c>
+      <c r="C312">
+        <v>0.00983</v>
       </c>
     </row>
   </sheetData>
